--- a/files/위치 데이터/장소의정확한위치정보.xlsx
+++ b/files/위치 데이터/장소의정확한위치정보.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D169"/>
+  <dimension ref="A1:D371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,22 +502,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>어린왕자감귤밭</t>
+          <t>올레길 7코스(서귀포-월평 올레)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>126.281829649556</t>
+          <t>126.51530966206293</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>33.253298288599</t>
+          <t>33.23738579332568</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>제주어린왕자감귤밭</t>
+          <t>제주도 서귀포</t>
         </is>
       </c>
     </row>
@@ -546,3606 +546,8050 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>올레길 18코스(제주원도심-조천 올레)</t>
+          <t>어린왕자감귤밭</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>126.58214303914238</t>
+          <t>126.281829649556</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>33.52522810308715</t>
+          <t>33.253298288599</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>제주도 제주시</t>
+          <t>제주어린왕자감귤밭</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>월정리해수욕장</t>
+          <t>올레길 18코스(제주원도심-조천 올레)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>126.795805057888</t>
+          <t>126.58214303914238</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>33.556469394054</t>
+          <t>33.52522810308715</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>월정리해변</t>
+          <t>제주도 제주시</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>제주도</t>
+          <t>월정리해수욕장</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>126.54587355630036</t>
+          <t>126.795805057888</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>33.379777816446165</t>
+          <t>33.556469394054</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>제주도 Jeju Island</t>
+          <t>월정리해변</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>동백포레스트</t>
+          <t>제주도</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>126.63619814081831</t>
+          <t>126.54587355630036</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>33.300308154725585</t>
+          <t>33.379777816446165</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>동백포레스트</t>
+          <t>Jeju Island</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>스튜디오 잔물결</t>
+          <t>제주도</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>126.830266163806</t>
+          <t>126.54587355630036</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>37.5588924894798</t>
+          <t>33.379777816446165</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>잔물결</t>
+          <t>제주도 Jeju Island</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>신창풍차해안도로</t>
+          <t>제주맛집</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>126.17420604655737</t>
+          <t>126.48030120279623</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>33.343081026740045</t>
+          <t>33.4906255603177</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>신창풍차해안도로</t>
+          <t>제주맛집</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>금능해수욕장</t>
+          <t>제주에인감귤밭</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>126.235889902253</t>
+          <t>126.5390139270361</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>33.3904488156321</t>
+          <t>33.25656069063887</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>금능해변</t>
+          <t>제주에인감귤밭</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>광치기해변</t>
+          <t>노티드 제주</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>126.92389656873524</t>
+          <t>126.30972281394814</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>33.45231690975651</t>
+          <t>33.46327184686136</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>광치기해변</t>
+          <t>카페 노티드 제주 애월 - Cafe Knotted Jeju Aewol</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>당근말밥제주</t>
+          <t>동백포레스트</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>126.51324070212</t>
+          <t>126.63619814081831</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>33.5040884597474</t>
+          <t>33.300308154725585</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>당근말밥 제주</t>
+          <t>동백포레스트</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>숙성도 중문점</t>
+          <t>금능해수욕장</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>126.4075053251621</t>
+          <t>126.235889902253</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>33.2583379388495</t>
+          <t>33.3904488156321</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>숙성도 중문점</t>
+          <t>금능해변</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>김녕해수욕장</t>
+          <t>신창풍차해안도로</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>126.759313988844</t>
+          <t>126.17420604655737</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>33.5574388587079</t>
+          <t>33.343081026740045</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>제주도 김녕해수욕장</t>
+          <t>신창풍차해안도로</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>아르떼뮤지엄 제주</t>
+          <t>세화해변</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>126.34501060259869</t>
+          <t>126.86025618946</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>33.39670048068425</t>
+          <t>33.5251436596119</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>아르떼뮤지엄 Arte Museum</t>
+          <t>제주 구좌읍 세화리</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>스누피가든</t>
+          <t>제주시청</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>126.779667502934</t>
+          <t>126.531171087129</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>33.4433592216395</t>
+          <t>33.4995342412698</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>스누피가든</t>
+          <t>제주시청에서</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>로드129</t>
+          <t>테라로사 서종점</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>126.321048106969</t>
+          <t>127.35528536911004</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>33.4643081022978</t>
+          <t>37.624698025453625</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>로드129</t>
+          <t>Terarosa - 테라로사</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>제주국제공항</t>
+          <t>거문오름</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>126.492769004244</t>
+          <t>126.71825597376333</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>33.5070789578184</t>
+          <t>33.45483859267793</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>제주공항</t>
+          <t>제주시 조천읍 선흘리</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>롯데시티호텔 제주</t>
+          <t>곽지해수욕장</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>126.486477218467</t>
+          <t>126.30467759583657</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>33.4906945837847</t>
+          <t>33.45064040259736</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LOTTE HOTEL JEJU 롯데호텔제주</t>
+          <t>제주도 곽지해수욕장</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>왕벚꽃거리</t>
+          <t>한라산국립공원</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>126.383825919428</t>
+          <t>126.54222094512</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>33.4521219667359</t>
+          <t>33.3766655632143</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>애월읍 장전리</t>
+          <t>제주시 아라동</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>올레길 7코스(서귀포-월평 올레)</t>
+          <t>올레길 4코스(표선-남원 올레)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>126.51530966206293</t>
+          <t>126.78792799112594</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>33.23738579332568</t>
+          <t>33.30481622383354</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>서귀포</t>
+          <t>제주도 표선</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>제주도</t>
+          <t>로드129</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>126.54587355630036</t>
+          <t>126.321048106969</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>33.379777816446165</t>
+          <t>33.4643081022978</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Jeju Island</t>
+          <t>로드129</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>애월더선셋</t>
+          <t>미깡창고</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>126.30887594187952</t>
+          <t>126.44512769425427</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>33.4561265802926</t>
+          <t>33.46028056783821</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>애월더선셋</t>
+          <t>미깡창고</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>노티드 제주</t>
+          <t>김녕해수욕장</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>126.30972281394814</t>
+          <t>126.759313988844</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>33.46327184686136</t>
+          <t>33.5574388587079</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>카페 노티드 제주 애월 - Cafe Knotted Jeju Aewol</t>
+          <t>제주도 김녕해수욕장</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>올레길 7코스(서귀포-월평 올레)</t>
+          <t>풀베개</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>126.51530966206293</t>
+          <t>126.303224677035</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>33.23738579332568</t>
+          <t>33.285512856952</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>제주도 서귀포</t>
+          <t>풀베개</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>델문도 로스터스</t>
+          <t>휴일로</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>126.526331763387</t>
+          <t>126.36652497979144</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>33.4918090197136</t>
+          <t>33.232208057130535</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>델문도 제주 카페 Cafe Delmoondo</t>
+          <t>휴일로</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CENACULUM JEJU</t>
+          <t>피규어뮤지엄제주</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>126.30129764229179</t>
+          <t>126.35535652107916</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>33.4449549374343</t>
+          <t>33.28190640701935</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>제주도, Jeju</t>
+          <t>피규어뮤지엄제주</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>포도뮤지엄</t>
+          <t>우도</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>126.385969459857</t>
+          <t>126.955582257582</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>33.3192727556025</t>
+          <t>33.5044199749505</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>포도뮤지엄</t>
+          <t>제주도 우도</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>제주에인감귤밭</t>
+          <t>제주담공방</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>126.5390139270361</t>
+          <t>126.47694633532</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>33.25656069063887</t>
+          <t>33.4923821696715</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>제주에인감귤밭</t>
+          <t>제주담공방</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>중문수두리보말칼국수</t>
+          <t>함덕해수욕장</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>126.42499942161753</t>
+          <t>126.669238934013</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>33.25156773781329</t>
+          <t>33.5430615661113</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>수두리보말칼국수</t>
+          <t>함덕해수욕장</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>불특정식당</t>
+          <t>푸른섬게스트하우스</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>126.84463047145752</t>
+          <t>126.812424476454</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>33.37533150058143</t>
+          <t>33.3079427982969</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>불특정식당</t>
+          <t>푸른섬 제주도</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>담백</t>
+          <t>어린왕자감귤밭</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>126.801318576113</t>
+          <t>126.281829649556</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>33.556476561769</t>
+          <t>33.253298288599</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>담백</t>
+          <t>어린왕자감귤밭</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>신산환해장성</t>
+          <t>베니키아호텔 제주</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>126.891524400249</t>
+          <t>126.36222929915863</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>33.3879355070174</t>
+          <t>33.47762686023124</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>성산읍 신산리</t>
+          <t>제주도애월해안로</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>풀베개</t>
+          <t>제주901</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>126.303224677035</t>
+          <t>126.48632557256</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>33.285512856952</t>
+          <t>33.4529387960151</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>풀베개</t>
+          <t>제주공항근처</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>메로왕</t>
+          <t>애월더선셋</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>126.514065705066</t>
+          <t>126.30887594187952</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>33.4993529338882</t>
+          <t>33.4561265802926</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>메로왕</t>
+          <t>애월더선셋</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>황우지해안</t>
+          <t>비자림</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>126.550527835146</t>
+          <t>126.80998754971</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>33.2414671811999</t>
+          <t>33.4904083697986</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>황우지해안</t>
+          <t>구좌읍 평대리</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>엉알해안</t>
+          <t>올댓커피 본점</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>126.167515521661</t>
+          <t>126.76891687926505</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>33.2994209234776</t>
+          <t>37.65986113460441</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>엉알해안</t>
+          <t>올댓커피</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>리므에스프레소바</t>
+          <t>문쏘</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>126.52500501222319</t>
+          <t>126.25670970996777</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>33.51564472974056</t>
+          <t>33.405687697267794</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>리므 에스프레소 바</t>
+          <t>문쏘</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>경복궁</t>
+          <t>제주냥이</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>126.976896737645</t>
+          <t>126.83966493488607</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>37.5776087830657</t>
+          <t>33.53354866465038</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>제주냥이</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>푸른섬게스트하우스</t>
+          <t>협재해수욕장</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>126.812424476454</t>
+          <t>126.239157539085</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>33.3079427982969</t>
+          <t>33.3938660776221</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>푸른섬 제주도</t>
+          <t>제주 협재 해수욕장</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>고토커피바</t>
+          <t>올레길 7코스(서귀포-월평 올레)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>126.380890926462</t>
+          <t>126.51530966206293</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>33.4809951433453</t>
+          <t>33.23738579332568</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>고토커피바</t>
+          <t>제주</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>면뽑는선생만두빚는아내</t>
+          <t>단소</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>126.24937579046478</t>
+          <t>126.32262201458293</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>33.39974716015132</t>
+          <t>33.46442490261183</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>면뽑는선생만두빚는아내</t>
+          <t>단소</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>이드레국수</t>
+          <t>연과자점</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>126.415641100188</t>
+          <t>126.559997555546</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>33.25526404227</t>
+          <t>33.2513865187395</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>이드레국수</t>
+          <t>연 과자점</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>장인의집</t>
+          <t>라온베이커리 남녕점</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>126.326837162725</t>
+          <t>126.482131398564</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>33.4657424492049</t>
+          <t>33.4890211768993</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>제주 장인의집</t>
+          <t>라온베이커리 남녕점</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>올레길 7코스(서귀포-월평 올레)</t>
+          <t>아르떼뮤지엄 제주</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>126.51530966206293</t>
+          <t>126.34501060259869</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>33.23738579332568</t>
+          <t>33.39670048068425</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>제주</t>
+          <t>아르떼뮤지엄 Arte Museum</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>소노캄 제주</t>
+          <t>오설록티뮤지엄</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>126.79208281471752</t>
+          <t>126.28948929546861</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>33.3055310248359</t>
+          <t>33.30591328662081</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>소노캄 제주</t>
+          <t>오설록티뮤지엄</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>순옥이네 명가 본점</t>
+          <t>랜디스도넛 제주애월점</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>126.46498161971583</t>
+          <t>126.31142823728557</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>33.505515927922644</t>
+          <t>33.46117162424217</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>순옥이네명가</t>
+          <t>랜디스도넛</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>일통이반</t>
+          <t>대박이네</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>126.52208028403851</t>
+          <t>126.40287391630181</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>33.517069712869976</t>
+          <t>33.48333623932163</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>일통이반</t>
+          <t>대박이네</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>대손가</t>
+          <t>몽돌해변</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>126.47932745631</t>
+          <t>126.440972666982</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>33.4836025821065</t>
+          <t>33.4962606130134</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>대손가</t>
+          <t>외도동</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>맛나식당</t>
+          <t>컴플렉스</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>126.916078563797</t>
+          <t>126.5241133233921</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>33.4486008329529</t>
+          <t>33.51140653820578</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>제주 맛나식당</t>
+          <t>컴플렉스</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>명품순두부</t>
+          <t>제주곶자왈도립공원</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>127.289765316151</t>
+          <t>126.27365850720722</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>36.5994152918561</t>
+          <t>33.28318695642633</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>명품순두부</t>
+          <t>제주곶자왈도립공원</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>협재솥</t>
+          <t>그러므로 파트2</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>126.241636047213</t>
+          <t>126.4859476928797</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>33.3948585708531</t>
+          <t>33.46849065901183</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>협재솥</t>
+          <t>그러므로part.2</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>송악산둘레길</t>
+          <t>지발</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>126.293075154019</t>
+          <t>126.334790490206</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>33.1968232389213</t>
+          <t>33.4660884059819</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>송악산 둘레길</t>
+          <t>JIVAL</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>신비의도로</t>
+          <t>스틸네거티브클럽 필름랩</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>126.487889294452</t>
+          <t>126.57582388675606</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>33.4504027603323</t>
+          <t>33.25576211811176</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>노형동</t>
+          <t>스틸네거티브클럽</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>식당마요네즈</t>
+          <t>화산2020</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>126.4786780166973</t>
+          <t>126.513818734498</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>33.488918341383474</t>
+          <t>33.5158077954112</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>식당 마요네즈</t>
+          <t>화산2020</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>방이동먹자골목</t>
+          <t>덴드리</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>127.109220856293</t>
+          <t>126.86605441622467</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>37.5147825360342</t>
+          <t>33.36958969198152</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>방이먹자골목</t>
+          <t>덴드리</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>섭지코지</t>
+          <t>세화해변</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>126.930609241011</t>
+          <t>126.86025618946</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>33.4239380655993</t>
+          <t>33.5251436596119</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>섭지코지 (Seopjikoji)</t>
+          <t>제주도 세화해변</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>닭머르</t>
+          <t>애월해안도로</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>126.61189693619232</t>
+          <t>126.36867872098</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>33.53647489410832</t>
+          <t>33.4781232943703</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>닭머르</t>
+          <t>애월해안도로</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>올레길 7코스(서귀포-월평 올레)</t>
+          <t>표선해수욕장</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>126.51530966206293</t>
+          <t>126.837424825392</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>33.23738579332568</t>
+          <t>33.3275109235413</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>서귀포시</t>
+          <t>표선해수욕장</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>곽지해수욕장</t>
+          <t>스튜디오 잔물결</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>126.30467759583657</t>
+          <t>126.830266163806</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>33.45064040259736</t>
+          <t>37.5588924894798</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>곽지해수욕장</t>
+          <t>잔물결</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>우도</t>
+          <t>올레길 7코스(서귀포-월평 올레)</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>126.955582257582</t>
+          <t>126.51530966206293</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>33.5044199749505</t>
+          <t>33.23738579332568</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>제주도 우도</t>
+          <t>서귀포</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>우도</t>
+          <t>올레길 5코스(남원-쇠소깍 올레)</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>126.955582257582</t>
+          <t>126.66743988738492</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>33.5044199749505</t>
+          <t>33.27078076230098</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>제주 우도</t>
+          <t>남원읍</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>세화해변</t>
+          <t>포도뮤지엄</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>126.86025618946</t>
+          <t>126.385969459857</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>33.5251436596119</t>
+          <t>33.3192727556025</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>제주도 세화해변</t>
+          <t>포도뮤지엄</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>유니입은심심해</t>
+          <t>카페유디에이</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>127.140825964797</t>
+          <t>126.528523513512</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>37.503623485288</t>
+          <t>33.2410304772516</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>심심해</t>
+          <t>카페 Uda</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>게슈탈트커피제주</t>
+          <t>CENACULUM JEJU</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>126.70800826409541</t>
+          <t>126.30129764229179</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>33.488013743795236</t>
+          <t>33.4449549374343</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>게슈탈트 커피 제주</t>
+          <t>제주시, Jeju</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>평대림</t>
+          <t>제주국제공항</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>126.834902242394</t>
+          <t>126.492769004244</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>33.5210372294777</t>
+          <t>33.5070789578184</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>제주동쪽</t>
+          <t>제주공항</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>돌염전</t>
+          <t>파르나스호텔 제주</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>126.37652048642</t>
+          <t>126.405763242364</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>33.4834138275298</t>
+          <t>33.2445934288837</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>구엄리 돌염전</t>
+          <t>파르나스 호텔 제주</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>아라리오뮤지엄 탑동시네마</t>
+          <t>살롱하임 연동점</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>126.52339165751819</t>
+          <t>126.490640329155</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>33.51739573130005</t>
+          <t>33.4815146217065</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>아라리오뮤지엄 제주</t>
+          <t>살롱하임연동점</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>한라산국립공원 영실탐방로</t>
+          <t>CENACULUM JEJU</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>126.5128718702698</t>
+          <t>126.30129764229179</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>33.35948456480922</t>
+          <t>33.4449549374343</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>한라산 영실코스</t>
+          <t>Jeju</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>금능해수욕장</t>
+          <t>올레리조트</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>126.235889902253</t>
+          <t>126.35551644557675</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>33.3904488156321</t>
+          <t>33.4758124068035</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>금능해수욕장</t>
+          <t>제주 올레리조트</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>블루메베이글</t>
+          <t>휴애리자연생활공원</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>126.533097460463</t>
+          <t>126.635409752107</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>33.4967141199483</t>
+          <t>33.309410458656</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>블루메베이글</t>
+          <t>휴애리 자연생활공원</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>제주바다체험장</t>
+          <t>평대림</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>126.72170531477036</t>
+          <t>126.834902242394</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>33.5547454134551</t>
+          <t>33.5210372294777</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>동복리</t>
+          <t>제주동쪽</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>제주담공방</t>
+          <t>올레길 18코스(제주원도심-조천 올레)</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>126.47694633532</t>
+          <t>126.58214303914238</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>33.4923821696715</t>
+          <t>33.52522810308715</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>제주담공방</t>
+          <t>제주시</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>안양일번가</t>
+          <t>올레길 1코스(시흥-광치기 올레)</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>126.922565238791</t>
+          <t>126.90636648646604</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>37.399171709091</t>
+          <t>33.47866074455451</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>안양일번가</t>
+          <t>제주도 서귀포시 성산읍</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>파르나스호텔 제주</t>
+          <t>이호테우해수욕장</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>126.405763242364</t>
+          <t>126.452690819027</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>33.2445934288837</t>
+          <t>33.4973768007144</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>파르나스 호텔 제주</t>
+          <t>이호테우해변</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>도두사수항</t>
+          <t>영락리 방파제</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>126.478637240292</t>
+          <t>126.193888238804</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>33.5097232562216</t>
+          <t>33.2529892310521</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>사수항</t>
+          <t>제주 무릉리</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>가파도</t>
+          <t>롱리브</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>126.27141034691293</t>
+          <t>126.541524169251</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>33.170012123095724</t>
+          <t>33.4765570711503</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>제주 가파도</t>
+          <t>Longlive</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>화북포구</t>
+          <t>하나의식탁</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>126.56493505858</t>
+          <t>126.528960340612</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>33.5247180586697</t>
+          <t>33.4976108738619</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>화북항</t>
+          <t>하나의식탁</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>제주바다</t>
+          <t>한라산1100고지</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>126.251115706106</t>
+          <t>126.462219691112</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>33.2177847523901</t>
+          <t>33.3580781709788</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>제주바다</t>
+          <t>한라산 1100고지</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>도두동무지개해안도로</t>
+          <t>본가장수촌 청주가경점</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>126.471338444636</t>
+          <t>127.43603007318791</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>33.5091180133618</t>
+          <t>36.6171404023782</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>도두동 무지개 해안도로</t>
+          <t>본가 장수촌</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>곽지해수욕장</t>
+          <t>제주게토게스트하우스파티</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>126.30467759583657</t>
+          <t>126.71328029582692</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>33.45064040259736</t>
+          <t>33.29958933840072</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>제주도 곽지해수욕장</t>
+          <t>제주게토</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>구아우쇼콜라</t>
+          <t>제주시차</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>126.74613545332805</t>
+          <t>126.282600284174</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>33.55625399005334</t>
+          <t>33.4416331239868</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>구아우쇼콜라</t>
+          <t>제주시차</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>영모원</t>
+          <t>순천만습지</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>126.417336058111</t>
+          <t>127.509555018979</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>33.4720143973585</t>
+          <t>34.8856119885429</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>애월읍 하귀1리</t>
+          <t>전라남도 순천</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>오늘의바다</t>
+          <t>해운대해수욕장</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>126.51848793154934</t>
+          <t>129.159854668484</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>33.24164120538883</t>
+          <t>35.1585232170784</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>카페 오늘의바다</t>
+          <t>부산</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>AMG SEOUL</t>
+          <t>새별오름</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>127.033904321455</t>
+          <t>126.3577306657398</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>37.5251230282347</t>
+          <t>33.366277591139294</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>서울 - Seoul</t>
+          <t>새별오름</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>표선해수욕장</t>
+          <t>Bakeshirts Store</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>126.837424825392</t>
+          <t>126.654652274056</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>33.3275109235413</t>
+          <t>33.4982809954416</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>표선해수욕장</t>
+          <t>Bake shirts</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>우도잠수함</t>
+          <t>옆집갤러리</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>126.934507758196</t>
+          <t>126.99487680639639</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>33.4729265517159</t>
+          <t>37.53651103538061</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>우도잠수함</t>
+          <t>Next door</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>표선해수욕장</t>
+          <t>광치기해변</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>126.837424825392</t>
+          <t>126.92389656873524</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>33.3275109235413</t>
+          <t>33.45231690975651</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>표선 해비치해수욕장</t>
+          <t>광치기해변</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>한라산국립공원 영실탐방로</t>
+          <t>제주여행</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>126.5128718702698</t>
+          <t>127.3041879999479</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>33.35948456480922</t>
+          <t>38.07053612435701</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>제주 한라산 영실코스</t>
+          <t>제주여행</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>흙먹는고양이</t>
+          <t>한라수목원</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>126.83652624727021</t>
+          <t>126.493266082832</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>33.538369010878085</t>
+          <t>33.4697839260314</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>흙먹는고양이</t>
+          <t>제주시연동</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>중문색달해수욕장</t>
+          <t>올레길 20코스(김녕-하도 올레)</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>126.411498674889</t>
+          <t>126.80547165134814</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>33.2450381505136</t>
+          <t>33.55424539993182</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Jungmun Beach</t>
+          <t>제주도 구좌읍</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>용담해안도로</t>
+          <t>흙먹는고양이</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>126.50956060325</t>
+          <t>126.83652624727021</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>33.5158270736255</t>
+          <t>33.538369010878085</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>용담해안도로</t>
+          <t>흙먹는고양이</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>함덕해수욕장</t>
+          <t>앙뚜아네트 용담점</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>126.669238934013</t>
+          <t>126.508835277337</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>33.5430615661113</t>
+          <t>33.5161848354525</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>함덕해수욕장</t>
+          <t>앙뚜아네트용담점</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>제주시버스터미널</t>
+          <t>한라드블랑</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>126.5148804170176</t>
+          <t>126.540550972888</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>33.499725778982096</t>
+          <t>33.4725972613032</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>제주버스터미널</t>
+          <t>한라드블랑</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>카페더콘테나</t>
+          <t>보내다제주</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>126.67895539907079</t>
+          <t>126.76054658669341</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>33.49808308071445</t>
+          <t>33.33016172775159</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>카페 더 콘테나</t>
+          <t>보내다제주</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>히든클리프호텔&amp;네이쳐</t>
+          <t>올레길 5코스(남원-쇠소깍 올레)</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>126.402595131766</t>
+          <t>126.66743988738492</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>33.2547764885257</t>
+          <t>33.27078076230098</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Hidden Cliff / 히든 클리프</t>
+          <t>제주 남원리</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>앙뚜아네트 용담점</t>
+          <t>델문도 로스터스</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>126.508835277337</t>
+          <t>126.526331763387</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>33.5161848354525</t>
+          <t>33.4918090197136</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>앙뚜아네트용담점</t>
+          <t>델문도 제주 카페 Cafe Delmoondo</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>미스틱3도</t>
+          <t>노형수퍼마켙</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>126.487556300468</t>
+          <t>126.455355642288</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>33.4499469794883</t>
+          <t>33.4648248755959</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>미스틱 3도</t>
+          <t>제주 노형수퍼마켙</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>미깡창고</t>
+          <t>마노커피하우스</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>126.44512769425427</t>
+          <t>126.427542520393</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>33.46028056783821</t>
+          <t>33.2568521560488</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>미깡창고</t>
+          <t>제주 마노카페</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>구리타워</t>
+          <t>한거리푸줏간</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>127.160071492276</t>
+          <t>126.79444230986</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>37.5888982698958</t>
+          <t>33.5553239177393</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>토평동</t>
+          <t>한거리푸줏간</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>올레길 1코스(시흥-광치기 올레)</t>
+          <t>동백동산</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>126.90636648646604</t>
+          <t>126.716028545663</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>33.47866074455451</t>
+          <t>33.5164508045545</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>제주 성산읍</t>
+          <t>선흘리 동백동산</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2023세계잼버리 (2023년8월예정)</t>
+          <t>문도지오름</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>126.58546922691</t>
+          <t>126.29461369162291</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>35.7076267268294</t>
+          <t>33.326250207623005</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>문도지 오름</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>한라산1100고지</t>
+          <t>닻</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>126.462219691112</t>
+          <t>126.39207943939813</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>33.3580781709788</t>
+          <t>33.486053434042375</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>한라산 1100고지</t>
+          <t>닻</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>화산2020</t>
+          <t>한성식당</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>126.513818734498</t>
+          <t>126.973098147371</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>33.5158077954112</t>
+          <t>37.563260528947</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>화산2020</t>
+          <t>한성식당</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>유탑유블레스호텔 제주</t>
+          <t>오리정</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>126.666278377026</t>
+          <t>126.559649082049</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>33.5424116890052</t>
+          <t>37.6989083140988</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>유탑유블레스호텔 제주</t>
+          <t>오리정</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>어린왕자감귤밭</t>
+          <t>세광양대창 교대본점</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>126.281829649556</t>
+          <t>127.01257422554994</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>33.253298288599</t>
+          <t>37.4920062884773</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>어린왕자감귤밭</t>
+          <t>세광양대창</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>세화해변</t>
+          <t>비지곶식당</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>126.86025618946</t>
+          <t>126.84204561257</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>33.5251436596119</t>
+          <t>33.5280213181898</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>제주 구좌읍 세화리</t>
+          <t>비지곳식당</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>귤밭76번지</t>
+          <t>우동카덴</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>126.55626937863897</t>
+          <t>126.915060893207</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>33.49312436752515</t>
+          <t>37.5516750493151</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>제주도 귤밭</t>
+          <t>우동 카덴</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>휴일로</t>
+          <t>숙성도 노형점</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>126.36652497979144</t>
+          <t>126.48502796132595</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>33.232208057130535</t>
+          <t>33.48503198254993</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>휴일로</t>
+          <t>숙성도</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>아주르블루</t>
+          <t>우도잠수함</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>126.72382221651873</t>
+          <t>126.934507758196</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>33.27969348302017</t>
+          <t>33.4729265517159</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>아주르블루</t>
+          <t>우도잠수함</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>한라수목원</t>
+          <t>노티드 제주</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>126.493266082832</t>
+          <t>126.30972281394814</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>33.4697839260314</t>
+          <t>33.46327184686136</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>제주시연동</t>
+          <t>Jeju Aewol</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>북촌리사무소</t>
+          <t>우도특별시</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>126.69606560955</t>
+          <t>126.967002230802</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>33.5480349829041</t>
+          <t>33.50671361571</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>제주 조천 북촌리</t>
+          <t>제주도 제주특별시</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>함덕해수욕장</t>
+          <t>바닐라파레트</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>126.669238934013</t>
+          <t>126.480579828486</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>33.5430615661113</t>
+          <t>33.4771172717429</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>조천읍</t>
+          <t>바닐라파레트</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>테라로사 서종점</t>
+          <t>YBM ECC 대치점</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>127.35528536911004</t>
+          <t>127.055370028556</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>37.624698025453625</t>
+          <t>37.5018311711858</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Terarosa - 테라로사</t>
+          <t>Ecc</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>마마롱</t>
+          <t>올레길 16코스(고내-광령 올레)</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>126.43917783176647</t>
+          <t>126.38979561557086</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>33.452159287132375</t>
+          <t>33.46649759191228</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>제주도 마마롱</t>
+          <t>애월</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>지미봉</t>
+          <t>롯데월드타워</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>126.90243888778755</t>
+          <t>127.10255558658325</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>33.49931349736776</t>
+          <t>37.51260447840551</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>제주 지미봉</t>
+          <t>롯데월드몰</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>대전서구문화원</t>
+          <t>카페 모알보알</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>127.385563179589</t>
+          <t>126.727953094591</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>36.3446140279522</t>
+          <t>33.5595665887276</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>대전서구문화원</t>
+          <t>모알보알</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>컴플리트커피 연동점</t>
+          <t>당근말밥제주</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>126.49129737346748</t>
+          <t>126.51324070212</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>33.47825986362117</t>
+          <t>33.5040884597474</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Complete Coffee</t>
+          <t>당근말밥 제주</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>노형수퍼마켙</t>
+          <t>차귀도놀빛바다</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>126.455355642288</t>
+          <t>126.164510297441</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>33.4648248755959</t>
+          <t>33.3078739410672</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>제주 노형수퍼마켙</t>
+          <t>차귀도 앞바다</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>난장게스트하우스</t>
+          <t>천지연폭포</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>126.526095975281</t>
+          <t>126.55452234287986</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>33.5153324500807</t>
+          <t>33.24721231608811</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>제주시청 근처</t>
+          <t>천지연폭포</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>올레길 10코스(화순-모슬포 올레)</t>
+          <t>리틀포레스트</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>126.29320987840607</t>
+          <t>126.45930166916456</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>33.216890444802004</t>
+          <t>33.24479261966458</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>서귀포시 대정읍</t>
+          <t>서귀포 리틀포레스트</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>제주동백수목원</t>
+          <t>올망</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>126.67799150264848</t>
+          <t>126.99953836560884</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>33.27497497875763</t>
+          <t>37.5371391429516</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>제주동백수목원</t>
+          <t>올망 - Olmang</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>이호테우해수욕장</t>
+          <t>사계바다 제주산방산점</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>126.452690819027</t>
+          <t>126.303797931935</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>33.4973768007144</t>
+          <t>33.2278741425682</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>이호테우해변</t>
+          <t>사계바다</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>규태네양곱창 본점</t>
+          <t>함덕해수욕장</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>126.486060276427</t>
+          <t>126.669238934013</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>33.4862281727332</t>
+          <t>33.5430615661113</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>규태네 양곱창</t>
+          <t>제주도 함덕해수욕장</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>버터모닝</t>
+          <t>카페치즈태비</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>126.42295364971837</t>
+          <t>126.80777194932058</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>33.46425633976876</t>
+          <t>33.55513706334602</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>버터모닝</t>
+          <t>카페치즈태비</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>시현하다 모먼트 본점</t>
+          <t>서울숲카페거리</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>127.03228524200696</t>
+          <t>127.043028992489</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>37.50359579591643</t>
+          <t>37.5464440372535</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>시현하다.</t>
+          <t>성수동</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>제주아트서커스</t>
+          <t>올레길 14코스(저지-한림 올레)</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>126.34481069358367</t>
+          <t>126.22960827746336</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>33.31439218363866</t>
+          <t>33.36565953780862</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>아트서커스_제주</t>
+          <t>제주도 한림</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>사이카레 제주애월본점</t>
+          <t>트라인커피</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>126.381106668339</t>
+          <t>126.6331963110968</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>33.4842446359284</t>
+          <t>33.4939358468351</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>사이카레</t>
+          <t>트라인커피</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>제주냥이</t>
+          <t>올레길 16코스(고내-광령 올레)</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>126.83966493488607</t>
+          <t>126.38979561557086</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>33.53354866465038</t>
+          <t>33.46649759191228</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>제주냥이</t>
+          <t>제주 애월</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>그랜드하얏트제주</t>
+          <t>올레길 21코스</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>126.48141147321883</t>
+          <t>126.89827021157316</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>33.485242300144556</t>
+          <t>33.51281074786431</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Grand Hyatt Jeju</t>
+          <t>제주도 하도리</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>연대포구</t>
+          <t>서귀포매일올레시장</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>126.426364951287</t>
+          <t>126.56323157639459</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>33.494744095982</t>
+          <t>33.25015006260236</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>연대포구</t>
+          <t>서귀포 매일올레시장</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>제주국제공항</t>
+          <t>애월해안도로</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>126.492769004244</t>
+          <t>126.36867872098</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>33.5070789578184</t>
+          <t>33.4781232943703</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>제주도공항</t>
+          <t>제주 해안도로</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>블루오션 차귀도요트</t>
+          <t>우연히그곳</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>126.1660147637618</t>
+          <t>126.782960923346</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>33.323984696195154</t>
+          <t>33.4717097831164</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>블루오션차귀도요트</t>
+          <t>우연히, 그 곳</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>제주게토게스트하우스파티</t>
+          <t>마마뜰</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>126.71328029582692</t>
+          <t>126.333571516211</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>33.29958933840072</t>
+          <t>33.3101922253042</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>제주게토</t>
+          <t>마마뜰</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>올레리조트</t>
+          <t>카페2085</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>126.35551644557675</t>
+          <t>126.70009708167468</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>33.4758124068035</t>
+          <t>33.486866046477864</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>제주 올레리조트</t>
+          <t>카페 2085</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>올레길 14코스(저지-한림 올레)</t>
+          <t>신시가지 횟집</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>126.22960827746336</t>
+          <t>126.506076220117</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>33.36565953780862</t>
+          <t>33.2530089473833</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>제주도 한림</t>
+          <t>서귀포 신시가지</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>우도</t>
+          <t>제3공간</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>126.955582257582</t>
+          <t>126.488830799632</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>33.5044199749505</t>
+          <t>33.4769063411423</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>우도</t>
+          <t>제3공간</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>고요새</t>
+          <t>위즈커피</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>126.58674033494978</t>
+          <t>126.432128534267</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>33.525515808076804</t>
+          <t>33.4874749915111</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>고요새</t>
+          <t>위즈커피</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>거문오름</t>
+          <t>하효마을다목적회관 전기차충전소</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>126.71825597376333</t>
+          <t>126.617699253123</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>33.45483859267793</t>
+          <t>33.2584810783353</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>제주도 제주시 조천읍 선흘리</t>
+          <t>효돈마을</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>카페치즈태비</t>
+          <t>청남대</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>126.80777194932058</t>
+          <t>127.49176536339175</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>33.55513706334602</t>
+          <t>36.46284607510989</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>카페치즈태비</t>
+          <t>충청북도 청주</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>금오름</t>
+          <t>오늘의감정오감</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>126.30583886304309</t>
+          <t>126.8611215196673</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>33.354572330015976</t>
+          <t>33.52187362827722</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>금악오름</t>
+          <t>오늘의감정오감</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>공백</t>
+          <t>하와이안비치로스터리카페</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>126.715093661443</t>
+          <t>126.91746580951093</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>33.5533924123546</t>
+          <t>33.435169540870056</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Gongbech.공백</t>
+          <t>하와이안비치카페</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>한밭수목원</t>
+          <t>서홍정원</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>127.388037583592</t>
+          <t>126.554407157697</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>36.3691431776998</t>
+          <t>33.2525711912172</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>대전</t>
+          <t>서홍정원</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>제주숨</t>
+          <t>제주돌창고</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>126.63844317928</t>
+          <t>126.233567730616</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>33.493961184535</t>
+          <t>33.3370926998628</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>제주숨도</t>
+          <t>제주돌창고</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>방주교회</t>
+          <t>달책빵</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>126.387439255121</t>
+          <t>126.8394335702856</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>33.305048981119</t>
+          <t>33.536406430321655</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>방주교회</t>
+          <t>달책빵</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>올레길 16코스(고내-광령 올레)</t>
+          <t>불을품은닭 본점</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>126.38979561557086</t>
+          <t>126.565802937736</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>33.46649759191228</t>
+          <t>33.5190663250969</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>제주 애월</t>
+          <t>불을품은닭</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>올레길 16코스(고내-광령 올레)</t>
+          <t>비양도</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>126.38979561557086</t>
+          <t>126.227348369237</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>33.46649759191228</t>
+          <t>33.4102777124648</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>제주 고내리</t>
+          <t>제주한림읍</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>모슬포</t>
+          <t>뽈살집 한림점</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>126.270591415441</t>
+          <t>126.26924628540898</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>33.1737490620551</t>
+          <t>33.41566160720984</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>모슬포</t>
+          <t>한림 뽈살집</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>협재해수욕장</t>
+          <t>도두사수항</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>126.239157539085</t>
+          <t>126.478637240292</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>33.3938660776221</t>
+          <t>33.5097232562216</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>제주 협재 해수욕장</t>
+          <t>사수항</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>덴드리</t>
+          <t>AMG SEOUL</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>126.86605441622467</t>
+          <t>127.033904321455</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>33.36958969198152</t>
+          <t>37.5251230282347</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>덴드리</t>
+          <t>서울 - Seoul</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>무로이</t>
+          <t>오늘의바다</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>126.336566694261</t>
+          <t>126.51848793154934</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>33.3077351431997</t>
+          <t>33.24164120538883</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>무로이</t>
+          <t>카페 오늘의바다</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>해운대해수욕장</t>
+          <t>영모원</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>129.159854668484</t>
+          <t>126.417336058111</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>35.1585232170784</t>
+          <t>33.4720143973585</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>부산</t>
+          <t>애월읍 하귀1리</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>마음에온</t>
+          <t>섭지코지</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>126.52596338859892</t>
+          <t>126.930609241011</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>33.51457911505602</t>
+          <t>33.4239380655993</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>마음에 온</t>
+          <t>섭지코지 (Seopjikoji)</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>파스테이스</t>
+          <t>도두동무지개해안도로</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>126.26684862529</t>
+          <t>126.471338444636</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>33.4076260320448</t>
+          <t>33.5091180133618</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>파스테이스</t>
+          <t>도두동 무지개 해안도로</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>시월의리브라</t>
+          <t>제주바다</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>126.53817577910097</t>
+          <t>126.251115706106</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>33.51330080867158</t>
+          <t>33.2177847523901</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>시월의리브라</t>
+          <t>제주바다</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>니모메</t>
+          <t>화북포구</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>126.430921435914</t>
+          <t>126.56493505858</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>33.4937012322846</t>
+          <t>33.5247180586697</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>니모메빈티지라운지</t>
+          <t>화북항</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>너븐</t>
+          <t>닭머르</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>126.574103781235</t>
+          <t>126.61189693619232</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>33.2453333881799</t>
+          <t>33.53647489410832</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>너븐</t>
+          <t>닭머르</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>제주901</t>
+          <t>맛나식당</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>126.48632557256</t>
+          <t>126.916078563797</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>33.4529387960151</t>
+          <t>33.4486008329529</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>제주공항근처</t>
+          <t>제주 맛나식당</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>제주탑동골목</t>
+          <t>소노캄 제주</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>126.52608303980253</t>
+          <t>126.79208281471752</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>33.51533600695393</t>
+          <t>33.3055310248359</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>제주탑동골목</t>
+          <t>소노캄 제주</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>엉알해안</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>126.734256737675</t>
+          <t>126.167515521661</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>37.50793875955</t>
+          <t>33.2994209234776</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>D&amp;department JEJU by Arario</t>
+          <t>엉알해안</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>아베크아롬</t>
+          <t>황우지해안</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>126.278797192182</t>
+          <t>126.550527835146</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>33.2744388228157</t>
+          <t>33.2414671811999</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>아베크아롬</t>
+          <t>황우지해안</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>행주산성</t>
+          <t>황금어장</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>126.8287096301388</t>
+          <t>126.495500774504</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>37.596101261945115</t>
+          <t>33.484395256844</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>고양시</t>
+          <t>황금어장</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>올레길 18코스(제주원도심-조천 올레)</t>
+          <t>수복강녕</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>126.58214303914238</t>
+          <t>126.49936400513441</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>33.52522810308715</t>
+          <t>33.48841399505487</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>제주시</t>
+          <t>수복강녕</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>영국찻집</t>
+          <t>분식후경</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>126.314112546652</t>
+          <t>126.9028687561492</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>33.4172313997298</t>
+          <t>33.40046478934569</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>영국찻집</t>
+          <t>분식후경</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>인디고인디드</t>
+          <t>표선해수욕장</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>126.33408453184738</t>
+          <t>126.837424825392</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>33.46640738320164</t>
+          <t>33.3275109235413</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>인디고인디드</t>
+          <t>표선 해비치해수욕장</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>서울숲카페거리</t>
+          <t>한라산국립공원 영실탐방로</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>127.043028992489</t>
+          <t>126.5128718702698</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>37.5464440372535</t>
+          <t>33.35948456480922</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>성수동</t>
+          <t>제주 한라산 영실코스</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
+          <t>중문색달해수욕장</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>126.411498674889</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>33.2450381505136</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Jungmun Beach</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>제주바다체험장</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>126.72170531477036</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>33.5547454134551</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>동복리</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>블루메베이글</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>126.533097460463</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>33.4967141199483</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>블루메베이글</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>금능해수욕장</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>126.235889902253</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>33.3904488156321</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>금능해수욕장</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>한라산국립공원 영실탐방로</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>126.5128718702698</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>33.35948456480922</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>한라산 영실코스</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>아라리오뮤지엄 탑동시네마</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>126.52339165751819</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>33.51739573130005</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>아라리오뮤지엄 제주</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
           <t>돌염전</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr">
+      <c r="B175" t="inlineStr">
         <is>
           <t>126.37652048642</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
+      <c r="C175" t="inlineStr">
         <is>
           <t>33.4834138275298</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>구엄리 돌염전</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>게슈탈트커피제주</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>126.70800826409541</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>33.488013743795236</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>게슈탈트 커피 제주</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>유니입은심심해</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>127.140825964797</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>37.503623485288</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>심심해</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>우도</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>126.955582257582</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>33.5044199749505</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>제주 우도</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>곽지해수욕장</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>126.30467759583657</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>33.45064040259736</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>곽지해수욕장</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>안양일번가</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>126.922565238791</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>37.399171709091</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>안양일번가</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>올레길 7코스(서귀포-월평 올레)</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>126.51530966206293</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>33.23738579332568</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>서귀포시</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>가파도</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>126.27141034691293</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>33.170012123095724</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>제주 가파도</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>용담해안도로</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>126.50956060325</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>33.5158270736255</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>용담해안도로</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>삼무곱창흑돼지 강남점</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>127.0360970026691</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>37.520986776710195</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>삼무곱창흑돼지강남점</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>고씨네천지국수</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>126.560751219246</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>33.251745326745</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>고씨네천지국수</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>올래국수 본점</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>126.49726716501328</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>33.49152862178827</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>올래국수</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>우정회센타</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>126.56320387654299</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>33.24967841269132</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>우정회센타</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>보정동카페거리</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>127.110100518138</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>37.3216286487319</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>보정동 까페거리</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>명단</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>126.521126799715</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>33.5045339233426</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>명단 제주시점</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>싸이공레시피</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>126.400183865841</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>33.4797764034322</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>싸이공레시피</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>스누피가든</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>126.779667502934</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>33.4433592216395</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>송당리</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>올레길 5코스(남원-쇠소깍 올레)</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>126.66743988738492</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>33.27078076230098</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>서귀포시 남원읍 위미리</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>몽돌해변</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>126.440972666982</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>33.4962606130134</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>제주시 외도동</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>미도리제주</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>126.430383885559</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>33.4883685732418</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>미도리 제주</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>해미읍성</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>126.54821585012382</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>36.71265505145304</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>충청남도 서산</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>양가형제</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>126.25398026094153</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>33.30735239828433</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>양가형제</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>곰막식당</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>126.72050964727606</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>33.55686867414115</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>곰막 횟집</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>수목원길야시장</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>126.48788617723713</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>33.470142289582924</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>수목원길 야시장</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>용머리해안</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>126.314736627312</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>33.2316567556941</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>안덕면 사계리</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>다랑쉬오름</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>126.82153592461563</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>33.47768585996772</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>다랑쉬오름</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>주야진</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>126.66335284939075</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>33.27267851657619</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>주야진</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>논짓물식당</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>126.388055610469</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>33.236417315394</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>논짓물식당</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>마담나탈리소셜클럽</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>126.249703899682</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>33.399841106569</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>마담나탈리소셜클럽</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>롯데워터파크</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>128.82930509028</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>35.180877561285</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>경상남도 김해</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>김녕해수욕장</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>126.759313988844</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>33.5574388587079</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>김녕 성세기 해변</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>대구이월드</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>128.56658131032162</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>35.85322716591636</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>대구</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>제주신화월드 서머셋</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>126.31720645254632</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>33.30280215929432</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>제주신화월드 Jeju Shinhwa World</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>홍당무떡볶이</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>126.561438950411</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>33.2476886147074</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>홍당무 떡볶이</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>올레길 7코스(서귀포-월평 올레)</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>126.51530966206293</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>33.23738579332568</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>법환동</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>협재해수욕장</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>126.239157539085</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>33.3938660776221</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>협재해변 Beach</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>천주교서울대교구 주교좌 명동대성당</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>126.98735609674071</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>37.56318453011765</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Myeong-dong</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>법환포구</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>126.515606477986</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>33.2372607213758</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>서귀포 법환포구</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>성심당 본점</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>127.42727719121109</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>36.32765802936324</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>맛집</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>협재칼국수</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>126.244506163658</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>33.3968090833636</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>협재칼국수</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>오쿠다</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>127.02560679360448</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>37.50967290969419</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>오쿠다</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>제주김만복 본점</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>126.508921919644</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>33.4970353986304</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>제주김만복</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>제주삼화지구</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>126.580152276482</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>33.5157258049573</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>삼화지구</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>한라산국립공원</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>126.54222094512</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>33.3766655632143</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>한라산국립공원</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>고부루비어컴퍼니</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>126.55253369167536</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>33.247060916373336</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>고부루비어컴퍼니</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>협재솥</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>126.241636047213</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>33.3948585708531</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>협재솥</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>판포포구</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>126.200023263531</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>33.365021627537</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>판포포구</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>아카렌가</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>126.264946704693</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>33.4117413474751</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>아카렌가</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>모던뽀이</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>126.528928554268</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>33.4995059007039</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>모던뽀이</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>지젤피트니스클럽</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>129.01150856742</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>35.2345484059555</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>지젤피트니스클럽화명점</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>더문에스테틱</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>126.533714819848</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>33.489146664169</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>더문에스테틱</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>사이카레 제주애월본점</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>126.381106668339</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>33.4842446359284</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>사이카레</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>무운</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>126.284446853029</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>33.2476467414278</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>무운</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>인생밥집 한림협재본점</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>126.26462747576373</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>33.41135177289947</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>인생밥집</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>성읍2리새마을작은도서관</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>126.771934302383</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>33.4131736955787</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>성읍2리</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>텐저린카페</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>126.50870672572</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>33.2362671146571</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>카페텐저린</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>목포역</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>126.386648357847</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>34.7911789935817</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>목포역</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>슈언니마카롱</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>126.51368860677631</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>33.23833158697786</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>슈언니 마카롱</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>토끼썸</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>126.89881498224804</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>33.52192638345875</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>토끼썸</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>카페사분의일</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>126.481310231364</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>33.4462497041425</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>사분의일</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>제주유리박물관</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>126.370157858943</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>33.2785417246746</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Jeju Glass Museum</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>고스란</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>126.36028629365623</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>33.28331314704803</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>고스란</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>스콘가게끌림</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>126.58279285663</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>33.5244080422855</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>스콘가게끌림</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>카페세화숲</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>126.861308065025</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>33.5243694661041</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>세화숲</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>산양큰엉곶</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>126.25063105774011</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>33.290923074330145</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>산양큰엉곶</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>미닝</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>126.277472263669</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>33.440651278265</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>미닝</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>지붕위제주바다</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>126.837498029285</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>33.5328407905861</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>한동리 바다</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>소길별하</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>126.37577585804</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>33.4298394296361</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>소길별하</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>한남리머체왓숲길</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>126.6663210996524</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>33.332348080994805</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>머체왓숲길</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>구리타워</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>127.160071492276</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>37.5888982698958</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>토평동</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>시현하다 모먼트 본점</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>127.03228524200696</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>37.50359579591643</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>시현하다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>히든클리프호텔&amp;네이쳐</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>126.402595131766</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>33.2547764885257</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Hidden Cliff / 히든 클리프</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>대전서구문화원</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>127.385563179589</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>36.3446140279522</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>대전서구문화원</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>블루오션 차귀도요트</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>126.1660147637618</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>33.323984696195154</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>블루오션차귀도요트</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>제주국제공항</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>126.492769004244</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>33.5070789578184</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>제주도공항</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>연대포구</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>126.426364951287</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>33.494744095982</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>연대포구</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>그랜드하얏트제주</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>126.48141147321883</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>33.485242300144556</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Grand Hyatt Jeju</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>제주아트서커스</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>126.34481069358367</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>33.31439218363866</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>아트서커스_제주</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>버터모닝</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>126.42295364971837</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>33.46425633976876</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>버터모닝</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>규태네양곱창 본점</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>126.486060276427</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>33.4862281727332</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>규태네 양곱창</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>올레길 10코스(화순-모슬포 올레)</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>126.29320987840607</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>33.216890444802004</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>서귀포시 대정읍</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>난장게스트하우스</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>126.526095975281</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>33.5153324500807</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>제주시청 근처</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>연돈</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>126.40715814631936</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>33.258895288625645</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>제주도맛집</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>서울앵무새</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>127.043603792836</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>37.5482989829541</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>서울앵무새</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>프레젠트</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>126.52149010035221</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>33.49796723041738</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>프레젠트</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>우리들컨트리클럽</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>126.588831918338</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>33.3103974993474</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>우리들cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>춘심이네오메기떡 신제주유통센터점</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>126.473017240671</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>33.4809044938574</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>춘심이네 오메기떡</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>사진놀이터</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>126.441735120785</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>33.4567500242143</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>사진놀이터</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>제동목장입구교차로</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>126.675463873816</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>33.4249033857882</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>제동목장</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>큰손상회</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>126.800414845577</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>33.5542409577363</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>큰손상회</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>송악산</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>126.28979142753593</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>33.19908293934712</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>송악산</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>이호테우등대</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>126.451961352582</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>33.5017949651276</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>이호테우 목마등대</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>BIFF광장</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>129.029045595229</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>35.0988678741728</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>남포동</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>창원수목원</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>128.65551997056</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>35.228248576212</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>중앙동</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>전주한옥마을</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>127.152557091072</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>35.8148243087693</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>전주</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>BK 킹스코트 GYM 연산점 헬스&amp;PT</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>129.086441321925</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>35.1744225571583</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>King's Gym</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>미남미녀</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>128.815711636266</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>35.9110205265075</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>미남미녀</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>와인터널</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>128.7205340487789</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>35.71513206473317</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>와인터널</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>명리동식당 구좌직영점</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>126.843295376657</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>33.5274603079164</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>명리동식당구좌점</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>제주곳집</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>126.82109561969</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>33.5327388418777</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>제주곳집</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>미카의달콤한작업실</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>126.29892794220129</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>33.22673960787681</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>미카의달콤한작업실</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>용머리해안 전기차충전소</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>126.31127996956054</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>33.233980968859534</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>제주도 산방산근처</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>슬기식당</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>126.53962458928274</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>33.515112989497176</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>슬기식당</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>올레길 1코스(시흥-광치기 올레)</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>126.90636648646604</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>33.47866074455451</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>성산읍</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>포토이즘스튜디오 연남점</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>126.923343004623</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>37.565544356741</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>연남동</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>제주풀무질</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>126.85888045935069</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>33.513208515036716</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>제주풀무질</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>렌소이스 게스트하우스</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>126.865132855281</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>33.520832204426</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>렌소이스</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>모이소</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>126.4885256161</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>33.4870966878762</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>모이소</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>리카페</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>128.996358916285</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>35.3197749610677</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Cafe Ri</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>제주영어교육도시 이동민원실</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>126.28182080788051</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>33.28794257724408</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>제주영어교육도시</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>바람이풀에 그림그린날</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>126.34988011235076</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>33.25781559505727</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>바람이풀에그림그린날</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>둔지봉</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>126.79539967925503</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>33.50273619834654</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>제주시 구좌읍 한동리</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>오누박스게스트하우스</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>126.306377128482</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>33.4446697023813</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>오누박스게스트하우스</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>성산일출봉</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>126.940537521366</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>33.4591349705437</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>성산일출봉</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>그리다앤쿡</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>126.530652571894</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>33.4975054978261</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>그리다앤쿡</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>올레길 7-1코스(월드컵경기장-서귀포 올레)</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>126.5232266849254</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>33.26209936589624</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>서귀포  서호동</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>무로이</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>126.336566694261</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>33.3077351431997</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>무로이</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>경복궁</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>126.976896737645</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>37.5776087830657</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>유우스테이</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>126.754238790278</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>33.5577823122422</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>유우스테이</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>테라도스</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>126.34239651453572</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>33.452745832693594</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>테라도스</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>너랑나랑게스트하우스</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>126.332077293408</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>33.2430321147082</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>너랑나랑게스트하우스</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>그리스신화박물관</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>126.35713527034747</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>33.34861301710886</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>그리스신화박물관  &amp; 트릭아이미술관</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>칠돈가 중문점</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>126.414441603689</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>33.2574763874152</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>중문칠돈가</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>미스틱3도</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>126.487556300468</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>33.4499469794883</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>미스틱 3도</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>올레길 1코스(시흥-광치기 올레)</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>126.90636648646604</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>33.47866074455451</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>제주 성산읍</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>마틸다</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>126.3342728419857</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>33.46569614224088</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>마틸다</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>폴카페</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>126.41637809085258</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>33.46904095393298</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>폴카페</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>콜린 제주</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>126.3104348968481</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>33.46286649069285</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>콜린 제주</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>팁시테이블</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>126.504257934019</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>33.2527059787879</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>강정동 블루빌딩</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>소사오름</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>126.229692128445</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>33.3883260282439</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>소사오름</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>신불당동문디이스트트윈스타오피스텔(A동) (2025년04월예정)</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>127.11066175586683</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>36.82124535333793</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>신불당동</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>더리트리브</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>126.33855714798095</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>33.2479981394688</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>The Retrieve</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>사라봉</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>126.5447664382625</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>33.51795577433532</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>건입동</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>제주썬호텔&amp;카지노</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>126.493896544314</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>33.4901264500463</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>제주썬호텔&amp;카지노 / Jeju Sun Hotel &amp; Casino</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>보래드베이커스</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>126.59056615376942</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>33.244398678150446</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>보래드베이커스</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>오사카</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>128.982001477403</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>35.1003636923282</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>오사카</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>해비치호텔앤드리조트 제주</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>126.84467246291966</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>33.321441416991675</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>해비치호텔&amp;리조트 - Haevichi hotel &amp; resort</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>왕벚꽃거리</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>126.383825919428</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>33.4521219667359</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>애월읍 장전리</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>카페더콘테나</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>126.67895539907079</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>33.49808308071445</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>제주 카페더콘테나</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>고요새</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>126.58674033494978</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>33.525515808076804</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>고요새</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>레이지펌프</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>126.309539831628</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>33.4662712983402</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>레이지펌프</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>제주현대미술관</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>126.26558503039344</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>33.33966276456556</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>제주 현대미술관</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>엘파소</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>126.32593679381893</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>33.24539007465288</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>엘파소</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>레스빠스커피 제주점</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>126.744351374397</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>33.3174282407231</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>레스빠스 제주점</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>샬로우커피</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>129.122172051268</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>35.1576178330502</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>샬로우커피</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>유탑유블레스호텔 제주</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>126.666278377026</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>33.5424116890052</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>유탑유블레스호텔 제주</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>바미아일랜드</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>126.797337581828</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>33.5550221489527</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>바미아일랜드</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>제주칠성로</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>126.525375461122</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>33.5132452151221</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>제주시 칠성로</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>제주바솔트</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>126.53923531291238</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>33.50407966811111</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>제주바솔트</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>올레길 13코스(용수-저지 올레)</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>126.21230336658091</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>33.328625315540165</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>제주도 한경면</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>꽃향유</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>126.347633279327</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>33.4570686613301</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>꽃향유</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>카페숲숲</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>126.596165910525</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>33.2372273633406</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>숲숲카페</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>정방폭포</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>126.571605283591</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>33.2449966137286</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>정방폭포</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>카페사분의일</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>126.481310231364</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>33.4462497041425</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>카페 사분의일</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>채점석베이커리 본점</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>126.51417532177</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>33.2484894346126</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>채점석베이커리</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>성이시돌목장</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>126.327321076199</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>33.3477698762559</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>Jeju Korea</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>파스테이스</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>126.26684862529</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>33.4076260320448</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>파스테이스</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>어울림마당</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>126.530547265407</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>33.499072067077</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>제주시 이도이동</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>한밭수목원</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>127.388037583592</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>36.3691431776998</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>대전</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>따라비오름</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>126.752858386101</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>33.3887069884228</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>제주도 가시리</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>동작골</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>129.08138316236</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>35.2683742745653</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>부산 금정구 남산동</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>올레길 20코스(김녕-하도 올레)</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>126.80547165134814</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>33.55424539993182</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>제주 구좌읍</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>모슬포</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>126.270591415441</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>33.1737490620551</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>모슬포</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>뽀로로앤타요테마파크 제주</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>126.37082203402295</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>33.30041822583184</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>뽀로로앤타요 테마파크 제주</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>골목카페옥수</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>126.379977434507</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>33.4397509795262</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>골목카페 옥수</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>홍대입구역 2호선</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>126.923778562273</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>37.5568707448873</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>홍대입구역</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>세부인보드카</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>126.91780954123283</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>37.54875956239431</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>세부</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>달달한구</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>126.562616951442</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>33.2425597781727</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>달달한구</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>취다선리조트</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>126.9127060920652</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>33.47182577628887</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>취다선리조트</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>제주그밤</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>126.274877222833</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>33.4366565361751</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>제주 그 밤</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>에어그라운드</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>126.746559586853</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>33.2820717369049</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>에어그라운드</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>소길다방</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>126.379435677348</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>33.4388106137126</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>소길다방</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>수월봉</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>126.16310858641053</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>33.29476974463891</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>수월봉</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>파더스가든</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>126.36575317658465</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>33.27994207702475</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>파더스가든</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>디앤디파트먼트 제주</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>126.52318858093004</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>33.517723128386216</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>디앤디파트먼트 제주</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>협재해수욕장</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>126.239157539085</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>33.3938660776221</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>협재해수욕장</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>아주르블루</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>126.72382221651873</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>33.27969348302017</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>아주르블루</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>귤밭76번지</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>126.55626937863897</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>33.49312436752515</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>제주도 귤밭</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>숙성도 중문점</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>126.4075053251621</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>33.2583379388495</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>숙성도 중문점</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>아쿠아플라넷 제주</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>126.92784588473428</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>33.433068041140075</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>Jeju Aqua Planet</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>오하효</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>126.61776838743388</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>33.259116941029006</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>오하효</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>마마롱</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>126.43917783176647</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>33.452159287132375</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>제주도 마마롱</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>제주 함덕 카페 라라떼커피</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>126.66262926049959</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>33.5427498152961</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>제주 함덕카페 라라떼</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>성수동카페거리</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>127.05639353022181</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>37.54243256842165</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>성수동카페거리</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>텔레스코프펜션</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>126.2575234713331</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>33.331691587472804</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>텔레스코프</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>베케</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>126.60492147759021</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>33.2619169247023</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>베케</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>126.734256737675</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>37.50793875955</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>D&amp;department JEJU by Arario</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>팔길</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>126.38360150517599</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>33.23388881437521</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>Palgil</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>유채꽃밭</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>126.92496986703993</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>33.454961086917564</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>제주도 유채꽃밭</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>공백</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>126.715093661443</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>33.5533924123546</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>Gongbech.공백</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>성이시돌목장</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>126.327321076199</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>33.3477698762559</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>Jeju, Korea</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>번네식당</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>126.329704864369</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>33.2457133826967</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>번네식당</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>너븐</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>126.574103781235</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>33.2453333881799</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>너븐</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>테라로사 서종점</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>127.35528536911004</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>37.624698025453625</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>테라로사</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>유니호텔 앤 풀빌라</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>126.37342690164174</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>33.47941682257472</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>유니호텔제주</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>양과자회관</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>126.76571986907624</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>33.362040387679656</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>양과자회관</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>돌염전</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>126.37652048642</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>33.4834138275298</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
         <is>
           <t>구엄리돌염전</t>
         </is>
